--- a/output/XP_21827663000154.xlsx
+++ b/output/XP_21827663000154.xlsx
@@ -977,10 +977,10 @@
         <v>44165</v>
       </c>
       <c r="B54">
-        <v>0.25725869</v>
+        <v>0.26230916</v>
       </c>
       <c r="C54">
-        <v>-0.005360195328898421</v>
+        <v>-0.001364678309010214</v>
       </c>
     </row>
   </sheetData>

--- a/output/XP_21827663000154.xlsx
+++ b/output/XP_21827663000154.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>XP LONG SHORT 60 FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,601 +383,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42582</v>
       </c>
       <c r="B2">
-        <v>-0.002047259999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42613</v>
       </c>
       <c r="B3">
-        <v>0.02008410000000005</v>
-      </c>
-      <c r="C3">
         <v>0.02217676159694704</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42643</v>
       </c>
       <c r="B4">
-        <v>0.02671519</v>
-      </c>
-      <c r="C4">
         <v>0.006500532652160773</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42674</v>
       </c>
       <c r="B5">
-        <v>0.05830768999999991</v>
-      </c>
-      <c r="C5">
         <v>0.03077046128050354</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42704</v>
       </c>
       <c r="B6">
-        <v>0.06233689000000009</v>
-      </c>
-      <c r="C6">
         <v>0.003807210358643509</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42735</v>
       </c>
       <c r="B7">
-        <v>0.07130225999999995</v>
-      </c>
-      <c r="C7">
         <v>0.008439290854335146</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42766</v>
       </c>
       <c r="B8">
-        <v>0.09002550000000009</v>
-      </c>
-      <c r="C8">
         <v>0.01747708438512974</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42794</v>
       </c>
       <c r="B9">
-        <v>0.09233702999999993</v>
-      </c>
-      <c r="C9">
         <v>0.002120620113932992</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42825</v>
       </c>
       <c r="B10">
-        <v>0.07619547000000004</v>
-      </c>
-      <c r="C10">
         <v>-0.01477708761736285</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42855</v>
       </c>
       <c r="B11">
-        <v>0.06233291000000007</v>
-      </c>
-      <c r="C11">
         <v>-0.01288108005137767</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42886</v>
       </c>
       <c r="B12">
-        <v>0.07488775000000003</v>
-      </c>
-      <c r="C12">
         <v>0.01181817854066103</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42916</v>
       </c>
       <c r="B13">
-        <v>0.09708030999999995</v>
-      </c>
-      <c r="C13">
         <v>0.02064639772850696</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42947</v>
       </c>
       <c r="B14">
-        <v>0.09871490999999999</v>
-      </c>
-      <c r="C14">
         <v>0.001489954732666776</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42978</v>
       </c>
       <c r="B15">
-        <v>0.1093225799999999</v>
-      </c>
-      <c r="C15">
         <v>0.009654615499847807</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43008</v>
       </c>
       <c r="B16">
-        <v>0.10952026</v>
-      </c>
-      <c r="C16">
         <v>0.0001781988427569381</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43039</v>
       </c>
       <c r="B17">
-        <v>0.11231156</v>
-      </c>
-      <c r="C17">
         <v>0.002515771996808747</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43069</v>
       </c>
       <c r="B18">
-        <v>0.09376118</v>
-      </c>
-      <c r="C18">
         <v>-0.01667732375270825</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43100</v>
       </c>
       <c r="B19">
-        <v>0.09701398000000006</v>
-      </c>
-      <c r="C19">
         <v>0.00297395817247792</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43131</v>
       </c>
       <c r="B20">
-        <v>0.1257852699999999</v>
-      </c>
-      <c r="C20">
         <v>0.02622691280561429</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43159</v>
       </c>
       <c r="B21">
-        <v>0.14456205</v>
-      </c>
-      <c r="C21">
         <v>0.01667882899196216</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43190</v>
       </c>
       <c r="B22">
-        <v>0.1748234900000001</v>
-      </c>
-      <c r="C22">
         <v>0.02643931799066723</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43220</v>
       </c>
       <c r="B23">
-        <v>0.19590094</v>
-      </c>
-      <c r="C23">
         <v>0.01794095043162613</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43251</v>
       </c>
       <c r="B24">
-        <v>0.19832593</v>
-      </c>
-      <c r="C24">
         <v>0.002027751562767355</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43281</v>
       </c>
       <c r="B25">
-        <v>0.2125169499999999</v>
-      </c>
-      <c r="C25">
         <v>0.01184237079806816</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43312</v>
       </c>
       <c r="B26">
-        <v>0.2176095199999999</v>
-      </c>
-      <c r="C26">
         <v>0.004199999018570377</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43343</v>
       </c>
       <c r="B27">
-        <v>0.1927687</v>
-      </c>
-      <c r="C27">
         <v>-0.02040130238140703</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43373</v>
       </c>
       <c r="B28">
-        <v>0.2024113400000001</v>
-      </c>
-      <c r="C28">
         <v>0.008084249695686996</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43404</v>
       </c>
       <c r="B29">
-        <v>0.22746529</v>
-      </c>
-      <c r="C29">
         <v>0.02083642191864232</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43434</v>
       </c>
       <c r="B30">
-        <v>0.2190000999999999</v>
-      </c>
-      <c r="C30">
         <v>-0.006896480144053752</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43465</v>
       </c>
       <c r="B31">
-        <v>0.21884346</v>
-      </c>
-      <c r="C31">
         <v>-0.0001284987589418307</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43496</v>
       </c>
       <c r="B32">
-        <v>0.2265204700000001</v>
-      </c>
-      <c r="C32">
         <v>0.006298602119094276</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43524</v>
       </c>
       <c r="B33">
-        <v>0.2417080199999999</v>
-      </c>
-      <c r="C33">
         <v>0.0123826306788013</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43555</v>
       </c>
       <c r="B34">
-        <v>0.24127385</v>
-      </c>
-      <c r="C34">
         <v>-0.0003496554689240705</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43585</v>
       </c>
       <c r="B35">
-        <v>0.24153592</v>
-      </c>
-      <c r="C35">
         <v>0.0002111298808076256</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43616</v>
       </c>
       <c r="B36">
-        <v>0.2433055</v>
-      </c>
-      <c r="C36">
         <v>0.001425315185403564</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43646</v>
       </c>
       <c r="B37">
-        <v>0.26171853</v>
-      </c>
-      <c r="C37">
         <v>0.01480973903839411</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43677</v>
       </c>
       <c r="B38">
-        <v>0.2485528800000001</v>
-      </c>
-      <c r="C38">
         <v>-0.01043469655629126</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43708</v>
       </c>
       <c r="B39">
-        <v>0.2583824800000001</v>
-      </c>
-      <c r="C39">
         <v>0.007872794302472785</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43738</v>
       </c>
       <c r="B40">
-        <v>0.25819178</v>
-      </c>
-      <c r="C40">
         <v>-0.0001515437500370087</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43769</v>
       </c>
       <c r="B41">
-        <v>0.2564003100000001</v>
-      </c>
-      <c r="C41">
         <v>-0.001423844940395269</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43799</v>
       </c>
       <c r="B42">
-        <v>0.25911281</v>
-      </c>
-      <c r="C42">
         <v>0.002158945662787959</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43830</v>
       </c>
       <c r="B43">
-        <v>0.2540941800000001</v>
-      </c>
-      <c r="C43">
         <v>-0.003985846192764764</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43861</v>
       </c>
       <c r="B44">
-        <v>0.27243291</v>
-      </c>
-      <c r="C44">
         <v>0.01462308835529402</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43890</v>
       </c>
       <c r="B45">
-        <v>0.2754384999999999</v>
-      </c>
-      <c r="C45">
         <v>0.002362081313976638</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43921</v>
       </c>
       <c r="B46">
-        <v>0.22297856</v>
-      </c>
-      <c r="C46">
         <v>-0.0411309051749652</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43951</v>
       </c>
       <c r="B47">
-        <v>0.24246853</v>
-      </c>
-      <c r="C47">
         <v>0.01593647725108105</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43982</v>
       </c>
       <c r="B48">
-        <v>0.26806851</v>
-      </c>
-      <c r="C48">
         <v>0.0206041274944806</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44012</v>
       </c>
       <c r="B49">
-        <v>0.2414724100000001</v>
-      </c>
-      <c r="C49">
         <v>-0.02097370906245433</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44043</v>
       </c>
       <c r="B50">
-        <v>0.2588940500000001</v>
-      </c>
-      <c r="C50">
         <v>0.01403304645328363</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>44074</v>
       </c>
       <c r="B51">
-        <v>0.28275615</v>
-      </c>
-      <c r="C51">
         <v>0.01895481196372306</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44104</v>
       </c>
       <c r="B52">
-        <v>0.26633236</v>
-      </c>
-      <c r="C52">
         <v>-0.01280351686483816</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44135</v>
       </c>
       <c r="B53">
-        <v>0.26403416</v>
-      </c>
-      <c r="C53">
         <v>-0.001814847407042519</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44165</v>
       </c>
       <c r="B54">
-        <v>0.26230916</v>
-      </c>
-      <c r="C54">
-        <v>-0.001364678309010214</v>
+        <v>-0.005561566469058143</v>
       </c>
     </row>
   </sheetData>
